--- a/database/files/business-upload/sales_level_split_upload_template.xlsx
+++ b/database/files/business-upload/sales_level_split_upload_template.xlsx
@@ -12,9 +12,7 @@
     <workbookView xWindow="120" yWindow="240" windowWidth="15130" windowHeight="9180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sales Split %" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="80000"/>
 </workbook>
@@ -33,6 +31,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>indicates that the field is mandatory</t>
     </r>
@@ -527,32 +526,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>